--- a/Inputs/Orange/V2/addons.xlsx
+++ b/Inputs/Orange/V2/addons.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Annual Limit" sheetId="1" state="visible" r:id="rId2"/>
@@ -1089,11 +1089,11 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.98"/>
@@ -1150,7 +1150,8 @@
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="b">
+      <c r="H2" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1177,7 +1178,8 @@
       <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="b">
+      <c r="H3" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1204,7 +1206,8 @@
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="4" t="b">
+      <c r="H4" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1231,7 +1234,8 @@
       <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="4" t="b">
+      <c r="H5" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1258,7 +1262,8 @@
       <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="4" t="b">
+      <c r="H6" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1285,7 +1290,8 @@
       <c r="G7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="4" t="b">
+      <c r="H7" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1312,7 +1318,8 @@
       <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="4" t="b">
+      <c r="H8" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1339,7 +1346,8 @@
       <c r="G9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="4" t="b">
+      <c r="H9" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1366,7 +1374,8 @@
       <c r="G10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="4" t="b">
+      <c r="H10" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1393,7 +1402,8 @@
       <c r="G11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="4" t="b">
+      <c r="H11" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1420,7 +1430,8 @@
       <c r="G12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="4" t="b">
+      <c r="H12" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1447,7 +1458,8 @@
       <c r="G13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="4" t="b">
+      <c r="H13" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1474,7 +1486,8 @@
       <c r="G14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="4" t="b">
+      <c r="H14" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1501,7 +1514,8 @@
       <c r="G15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="4" t="b">
+      <c r="H15" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1528,7 +1542,8 @@
       <c r="G16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="4" t="b">
+      <c r="H16" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1555,7 +1570,8 @@
       <c r="G17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="4" t="b">
+      <c r="H17" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1582,7 +1598,8 @@
       <c r="G18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="4" t="b">
+      <c r="H18" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1609,7 +1626,8 @@
       <c r="G19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="4" t="b">
+      <c r="H19" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1636,7 +1654,8 @@
       <c r="G20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="4" t="b">
+      <c r="H20" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1663,7 +1682,8 @@
       <c r="G21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="4" t="b">
+      <c r="H21" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1690,7 +1710,8 @@
       <c r="G22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="4" t="b">
+      <c r="H22" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1717,7 +1738,8 @@
       <c r="G23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="4" t="b">
+      <c r="H23" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1745,7 +1767,7 @@
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.65"/>
@@ -1804,7 +1826,8 @@
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="b">
+      <c r="H2" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1831,7 +1854,8 @@
       <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="b">
+      <c r="H3" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1858,7 +1882,8 @@
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="4" t="b">
+      <c r="H4" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1885,7 +1910,8 @@
       <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="4" t="b">
+      <c r="H5" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1912,7 +1938,8 @@
       <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="4" t="b">
+      <c r="H6" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1939,7 +1966,8 @@
       <c r="G7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="4" t="b">
+      <c r="H7" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1966,7 +1994,8 @@
       <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="4" t="b">
+      <c r="H8" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -1993,7 +2022,8 @@
       <c r="G9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="4" t="b">
+      <c r="H9" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2020,7 +2050,8 @@
       <c r="G10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="4" t="b">
+      <c r="H10" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2047,7 +2078,8 @@
       <c r="G11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="4" t="b">
+      <c r="H11" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2074,7 +2106,8 @@
       <c r="G12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="4" t="b">
+      <c r="H12" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2101,7 +2134,8 @@
       <c r="G13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="4" t="b">
+      <c r="H13" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2128,7 +2162,8 @@
       <c r="G14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="4" t="b">
+      <c r="H14" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2155,7 +2190,8 @@
       <c r="G15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="4" t="b">
+      <c r="H15" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2182,7 +2218,8 @@
       <c r="G16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="4" t="b">
+      <c r="H16" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2208,7 +2245,7 @@
       <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.18"/>
@@ -2259,7 +2296,8 @@
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="b">
+      <c r="G2" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2283,7 +2321,8 @@
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4" t="b">
+      <c r="G3" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2307,7 +2346,8 @@
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4" t="b">
+      <c r="G4" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2331,7 +2371,8 @@
       <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="4" t="b">
+      <c r="G5" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2355,7 +2396,8 @@
       <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="4" t="b">
+      <c r="G6" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2381,7 +2423,7 @@
       <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.3"/>
@@ -2432,7 +2474,8 @@
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="b">
+      <c r="G2" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2456,7 +2499,8 @@
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4" t="b">
+      <c r="G3" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2480,7 +2524,8 @@
       <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="4" t="b">
+      <c r="G4" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2504,7 +2549,8 @@
       <c r="F5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="4" t="b">
+      <c r="G5" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2528,7 +2574,8 @@
       <c r="F6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="4" t="b">
+      <c r="G6" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2552,7 +2599,8 @@
       <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="4" t="b">
+      <c r="G7" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2576,7 +2624,8 @@
       <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="4" t="b">
+      <c r="G8" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2598,11 +2647,11 @@
   </sheetPr>
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C63" activeCellId="0" sqref="C63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="55.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.09"/>
@@ -2657,7 +2706,8 @@
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="b">
+      <c r="H2" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2684,7 +2734,8 @@
       <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="4" t="b">
+      <c r="H3" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2711,7 +2762,8 @@
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="4" t="b">
+      <c r="H4" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2738,7 +2790,8 @@
       <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="4" t="b">
+      <c r="H5" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2765,7 +2818,8 @@
       <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="4" t="b">
+      <c r="H6" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2792,7 +2846,8 @@
       <c r="G7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="4" t="b">
+      <c r="H7" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2819,7 +2874,8 @@
       <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="4" t="b">
+      <c r="H8" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2846,7 +2902,8 @@
       <c r="G9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="4" t="b">
+      <c r="H9" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2873,7 +2930,8 @@
       <c r="G10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="4" t="b">
+      <c r="H10" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2900,7 +2958,8 @@
       <c r="G11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="4" t="b">
+      <c r="H11" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2927,7 +2986,8 @@
       <c r="G12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="4" t="b">
+      <c r="H12" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2954,7 +3014,8 @@
       <c r="G13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="4" t="b">
+      <c r="H13" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -2981,7 +3042,8 @@
       <c r="G14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="4" t="b">
+      <c r="H14" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3008,7 +3070,8 @@
       <c r="G15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="4" t="b">
+      <c r="H15" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3035,7 +3098,8 @@
       <c r="G16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="4" t="b">
+      <c r="H16" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3056,13 +3120,14 @@
       <c r="E17" s="0" t="n">
         <v>-0.249999999999995</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>49</v>
+      <c r="F17" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="4" t="b">
+      <c r="H17" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3089,7 +3154,8 @@
       <c r="G18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="4" t="b">
+      <c r="H18" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3116,7 +3182,8 @@
       <c r="G19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="4" t="b">
+      <c r="H19" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3143,7 +3210,8 @@
       <c r="G20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="4" t="b">
+      <c r="H20" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3170,7 +3238,8 @@
       <c r="G21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="4" t="b">
+      <c r="H21" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3197,7 +3266,8 @@
       <c r="G22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="4" t="b">
+      <c r="H22" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3224,7 +3294,8 @@
       <c r="G23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="4" t="b">
+      <c r="H23" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3251,7 +3322,8 @@
       <c r="G24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="4" t="b">
+      <c r="H24" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3278,7 +3350,8 @@
       <c r="G25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="4" t="b">
+      <c r="H25" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3305,7 +3378,8 @@
       <c r="G26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="4" t="b">
+      <c r="H26" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3332,7 +3406,8 @@
       <c r="G27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="4" t="b">
+      <c r="H27" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3359,7 +3434,8 @@
       <c r="G28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="4" t="b">
+      <c r="H28" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3386,7 +3462,8 @@
       <c r="G29" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="4" t="b">
+      <c r="H29" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3413,7 +3490,8 @@
       <c r="G30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="4" t="b">
+      <c r="H30" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3440,7 +3518,8 @@
       <c r="G31" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="4" t="b">
+      <c r="H31" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3467,7 +3546,8 @@
       <c r="G32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="4" t="b">
+      <c r="H32" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3494,7 +3574,8 @@
       <c r="G33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="4" t="b">
+      <c r="H33" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3521,7 +3602,8 @@
       <c r="G34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="4" t="b">
+      <c r="H34" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3548,7 +3630,8 @@
       <c r="G35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="4" t="b">
+      <c r="H35" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3575,7 +3658,8 @@
       <c r="G36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="4" t="b">
+      <c r="H36" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3602,7 +3686,8 @@
       <c r="G37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="4" t="b">
+      <c r="H37" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3629,7 +3714,8 @@
       <c r="G38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="4" t="b">
+      <c r="H38" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3656,7 +3742,8 @@
       <c r="G39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="4" t="b">
+      <c r="H39" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3683,7 +3770,8 @@
       <c r="G40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H40" s="4" t="b">
+      <c r="H40" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3710,7 +3798,8 @@
       <c r="G41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H41" s="4" t="b">
+      <c r="H41" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3737,7 +3826,8 @@
       <c r="G42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="4" t="b">
+      <c r="H42" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3764,7 +3854,8 @@
       <c r="G43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H43" s="4" t="b">
+      <c r="H43" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3791,7 +3882,8 @@
       <c r="G44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="4" t="b">
+      <c r="H44" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3818,7 +3910,8 @@
       <c r="G45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H45" s="4" t="b">
+      <c r="H45" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3845,7 +3938,8 @@
       <c r="G46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H46" s="4" t="b">
+      <c r="H46" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3872,7 +3966,8 @@
       <c r="G47" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H47" s="4" t="b">
+      <c r="H47" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3899,7 +3994,8 @@
       <c r="G48" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H48" s="4" t="b">
+      <c r="H48" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3926,7 +4022,8 @@
       <c r="G49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H49" s="4" t="b">
+      <c r="H49" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3953,7 +4050,8 @@
       <c r="G50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H50" s="4" t="b">
+      <c r="H50" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -3980,7 +4078,8 @@
       <c r="G51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H51" s="4" t="b">
+      <c r="H51" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4007,7 +4106,8 @@
       <c r="G52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H52" s="4" t="b">
+      <c r="H52" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4034,7 +4134,8 @@
       <c r="G53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H53" s="4" t="b">
+      <c r="H53" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4061,7 +4162,8 @@
       <c r="G54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H54" s="4" t="b">
+      <c r="H54" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4088,7 +4190,8 @@
       <c r="G55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H55" s="4" t="b">
+      <c r="H55" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4115,7 +4218,8 @@
       <c r="G56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H56" s="4" t="b">
+      <c r="H56" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4142,7 +4246,8 @@
       <c r="G57" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H57" s="4" t="b">
+      <c r="H57" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4169,7 +4274,8 @@
       <c r="G58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H58" s="4" t="b">
+      <c r="H58" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4196,7 +4302,8 @@
       <c r="G59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H59" s="4" t="b">
+      <c r="H59" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4223,7 +4330,8 @@
       <c r="G60" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H60" s="4" t="b">
+      <c r="H60" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4250,7 +4358,8 @@
       <c r="G61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H61" s="4" t="b">
+      <c r="H61" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4277,7 +4386,8 @@
       <c r="G62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H62" s="4" t="b">
+      <c r="H62" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4304,7 +4414,8 @@
       <c r="G63" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H63" s="4" t="b">
+      <c r="H63" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4331,7 +4442,8 @@
       <c r="G64" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H64" s="4" t="b">
+      <c r="H64" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4358,7 +4470,8 @@
       <c r="G65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H65" s="4" t="b">
+      <c r="H65" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4385,7 +4498,8 @@
       <c r="G66" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H66" s="4" t="b">
+      <c r="H66" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4412,7 +4526,8 @@
       <c r="G67" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H67" s="4" t="b">
+      <c r="H67" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4439,7 +4554,8 @@
       <c r="G68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H68" s="4" t="b">
+      <c r="H68" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4466,7 +4582,8 @@
       <c r="G69" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H69" s="4" t="b">
+      <c r="H69" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4493,7 +4610,8 @@
       <c r="G70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H70" s="4" t="b">
+      <c r="H70" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4520,7 +4638,8 @@
       <c r="G71" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H71" s="4" t="b">
+      <c r="H71" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4546,7 +4665,7 @@
       <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.1"/>
@@ -4610,7 +4729,8 @@
       <c r="H2" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="4" t="b">
+      <c r="I2" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4640,7 +4760,8 @@
       <c r="H3" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I3" s="4" t="b">
+      <c r="I3" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4670,7 +4791,8 @@
       <c r="H4" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I4" s="4" t="b">
+      <c r="I4" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4700,7 +4822,8 @@
       <c r="H5" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I5" s="4" t="b">
+      <c r="I5" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4730,7 +4853,8 @@
       <c r="H6" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I6" s="4" t="b">
+      <c r="I6" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4760,7 +4884,8 @@
       <c r="H7" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="4" t="b">
+      <c r="I7" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4790,7 +4915,8 @@
       <c r="H8" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I8" s="4" t="b">
+      <c r="I8" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4820,7 +4946,8 @@
       <c r="H9" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I9" s="4" t="b">
+      <c r="I9" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4850,7 +4977,8 @@
       <c r="H10" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I10" s="4" t="b">
+      <c r="I10" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4880,7 +5008,8 @@
       <c r="H11" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I11" s="4" t="b">
+      <c r="I11" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4910,7 +5039,8 @@
       <c r="H12" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I12" s="4" t="b">
+      <c r="I12" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4940,7 +5070,8 @@
       <c r="H13" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I13" s="4" t="b">
+      <c r="I13" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -4970,7 +5101,8 @@
       <c r="H14" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I14" s="4" t="b">
+      <c r="I14" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5000,7 +5132,8 @@
       <c r="H15" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I15" s="4" t="b">
+      <c r="I15" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5030,7 +5163,8 @@
       <c r="H16" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I16" s="4" t="b">
+      <c r="I16" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5060,7 +5194,8 @@
       <c r="H17" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I17" s="4" t="b">
+      <c r="I17" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5090,7 +5225,8 @@
       <c r="H18" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I18" s="4" t="b">
+      <c r="I18" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5120,7 +5256,8 @@
       <c r="H19" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I19" s="4" t="b">
+      <c r="I19" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5150,7 +5287,8 @@
       <c r="H20" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I20" s="4" t="b">
+      <c r="I20" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5180,7 +5318,8 @@
       <c r="H21" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I21" s="4" t="b">
+      <c r="I21" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5210,7 +5349,8 @@
       <c r="H22" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I22" s="4" t="b">
+      <c r="I22" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5240,7 +5380,8 @@
       <c r="H23" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I23" s="4" t="b">
+      <c r="I23" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5270,7 +5411,8 @@
       <c r="H24" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I24" s="4" t="b">
+      <c r="I24" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5300,7 +5442,8 @@
       <c r="H25" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I25" s="4" t="b">
+      <c r="I25" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5330,7 +5473,8 @@
       <c r="H26" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I26" s="4" t="b">
+      <c r="I26" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5360,7 +5504,8 @@
       <c r="H27" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I27" s="4" t="b">
+      <c r="I27" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5390,7 +5535,8 @@
       <c r="H28" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I28" s="4" t="b">
+      <c r="I28" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5420,7 +5566,8 @@
       <c r="H29" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I29" s="4" t="b">
+      <c r="I29" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5450,7 +5597,8 @@
       <c r="H30" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I30" s="4" t="b">
+      <c r="I30" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5478,7 +5626,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="75.07"/>
@@ -5543,7 +5691,8 @@
       <c r="H2" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="4" t="b">
+      <c r="I2" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5573,7 +5722,8 @@
       <c r="H3" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I3" s="4" t="b">
+      <c r="I3" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5603,7 +5753,8 @@
       <c r="H4" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I4" s="4" t="b">
+      <c r="I4" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5633,7 +5784,8 @@
       <c r="H5" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I5" s="4" t="b">
+      <c r="I5" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5663,7 +5815,8 @@
       <c r="H6" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I6" s="4" t="b">
+      <c r="I6" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5693,7 +5846,8 @@
       <c r="H7" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="4" t="b">
+      <c r="I7" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5723,7 +5877,8 @@
       <c r="H8" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I8" s="4" t="b">
+      <c r="I8" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5753,7 +5908,8 @@
       <c r="H9" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I9" s="4" t="b">
+      <c r="I9" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5783,7 +5939,8 @@
       <c r="H10" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I10" s="4" t="b">
+      <c r="I10" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5813,7 +5970,8 @@
       <c r="H11" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I11" s="4" t="b">
+      <c r="I11" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5843,7 +6001,8 @@
       <c r="H12" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I12" s="4" t="b">
+      <c r="I12" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5873,7 +6032,8 @@
       <c r="H13" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I13" s="4" t="b">
+      <c r="I13" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5903,7 +6063,8 @@
       <c r="H14" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I14" s="4" t="b">
+      <c r="I14" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5933,7 +6094,8 @@
       <c r="H15" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I15" s="4" t="b">
+      <c r="I15" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5963,7 +6125,8 @@
       <c r="H16" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I16" s="4" t="b">
+      <c r="I16" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -5993,7 +6156,8 @@
       <c r="H17" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I17" s="4" t="b">
+      <c r="I17" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6023,7 +6187,8 @@
       <c r="H18" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I18" s="4" t="b">
+      <c r="I18" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6053,7 +6218,8 @@
       <c r="H19" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I19" s="4" t="b">
+      <c r="I19" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6083,7 +6249,8 @@
       <c r="H20" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I20" s="4" t="b">
+      <c r="I20" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6113,7 +6280,8 @@
       <c r="H21" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I21" s="4" t="b">
+      <c r="I21" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6143,7 +6311,8 @@
       <c r="H22" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I22" s="4" t="b">
+      <c r="I22" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6173,7 +6342,8 @@
       <c r="H23" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I23" s="4" t="b">
+      <c r="I23" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6203,7 +6373,8 @@
       <c r="H24" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I24" s="4" t="b">
+      <c r="I24" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6233,7 +6404,8 @@
       <c r="H25" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I25" s="4" t="b">
+      <c r="I25" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6263,7 +6435,8 @@
       <c r="H26" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I26" s="4" t="b">
+      <c r="I26" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6293,7 +6466,8 @@
       <c r="H27" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I27" s="4" t="b">
+      <c r="I27" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6323,7 +6497,8 @@
       <c r="H28" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I28" s="4" t="b">
+      <c r="I28" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6353,7 +6528,8 @@
       <c r="H29" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I29" s="4" t="b">
+      <c r="I29" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6383,7 +6559,8 @@
       <c r="H30" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I30" s="4" t="b">
+      <c r="I30" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6411,7 +6588,7 @@
       <selection pane="topLeft" activeCell="G37" activeCellId="0" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="47.56"/>
@@ -6474,7 +6651,8 @@
       <c r="H2" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="4" t="b">
+      <c r="I2" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6504,7 +6682,8 @@
       <c r="H3" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I3" s="4" t="b">
+      <c r="I3" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6534,7 +6713,8 @@
       <c r="H4" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I4" s="4" t="b">
+      <c r="I4" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6564,7 +6744,8 @@
       <c r="H5" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I5" s="4" t="b">
+      <c r="I5" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6594,7 +6775,8 @@
       <c r="H6" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I6" s="4" t="b">
+      <c r="I6" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6624,7 +6806,8 @@
       <c r="H7" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I7" s="4" t="b">
+      <c r="I7" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6654,7 +6837,8 @@
       <c r="H8" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I8" s="4" t="b">
+      <c r="I8" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6684,7 +6868,8 @@
       <c r="H9" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I9" s="4" t="b">
+      <c r="I9" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6714,7 +6899,8 @@
       <c r="H10" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I10" s="4" t="b">
+      <c r="I10" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6744,7 +6930,8 @@
       <c r="H11" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I11" s="4" t="b">
+      <c r="I11" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6774,7 +6961,8 @@
       <c r="H12" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I12" s="4" t="b">
+      <c r="I12" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6804,7 +6992,8 @@
       <c r="H13" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I13" s="4" t="b">
+      <c r="I13" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6834,7 +7023,8 @@
       <c r="H14" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I14" s="4" t="b">
+      <c r="I14" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6864,7 +7054,8 @@
       <c r="H15" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I15" s="4" t="b">
+      <c r="I15" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6894,7 +7085,8 @@
       <c r="H16" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I16" s="4" t="b">
+      <c r="I16" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6924,7 +7116,8 @@
       <c r="H17" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I17" s="4" t="b">
+      <c r="I17" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6954,7 +7147,8 @@
       <c r="H18" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I18" s="4" t="b">
+      <c r="I18" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -6984,7 +7178,8 @@
       <c r="H19" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I19" s="4" t="b">
+      <c r="I19" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -7014,7 +7209,8 @@
       <c r="H20" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I20" s="4" t="b">
+      <c r="I20" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -7044,7 +7240,8 @@
       <c r="H21" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I21" s="4" t="b">
+      <c r="I21" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -7074,7 +7271,8 @@
       <c r="H22" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I22" s="4" t="b">
+      <c r="I22" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -7104,7 +7302,8 @@
       <c r="H23" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I23" s="4" t="b">
+      <c r="I23" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -7134,7 +7333,8 @@
       <c r="H24" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I24" s="4" t="b">
+      <c r="I24" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -7164,7 +7364,8 @@
       <c r="H25" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I25" s="4" t="b">
+      <c r="I25" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -7194,7 +7395,8 @@
       <c r="H26" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I26" s="4" t="b">
+      <c r="I26" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -7224,7 +7426,8 @@
       <c r="H27" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I27" s="4" t="b">
+      <c r="I27" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -7254,7 +7457,8 @@
       <c r="H28" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I28" s="4" t="b">
+      <c r="I28" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -7284,7 +7488,8 @@
       <c r="H29" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I29" s="4" t="b">
+      <c r="I29" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -7314,7 +7519,8 @@
       <c r="H30" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I30" s="4" t="b">
+      <c r="I30" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
@@ -7344,7 +7550,8 @@
       <c r="H31" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="I31" s="4" t="b">
+      <c r="I31" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>

--- a/Inputs/Orange/V2/addons.xlsx
+++ b/Inputs/Orange/V2/addons.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Annual Limit" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,10 +18,12 @@
     <sheet name="Optical Benefits" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Accommodation Type'!$A$1:$H$16</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Annual Limit'!$A$1:$F$23</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Dental!$A$1:$F$30</definedName>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Dental!$A$1:$F$31</definedName>
     <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'Maternity (Consultations, Scans'!$A$1:$F$30</definedName>
-    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'Optical Benefits'!$A$1:$F$31</definedName>
+    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'Optical Benefits'!$A$1:$F$32</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Out-patient Medicines'!$A$1:$H$71</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="153">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -101,19 +103,16 @@
     <t xml:space="preserve">Regional Plus- Bronze</t>
   </si>
   <si>
-    <t xml:space="preserve">Suite </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semi Private </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shared </t>
+    <t xml:space="preserve">Suite Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semi Private Room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shared Room</t>
   </si>
   <si>
     <t xml:space="preserve">Nil</t>
@@ -472,6 +471,27 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Nil </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(Pharmacy Copay)</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">5%</t>
   </si>
   <si>
@@ -507,6 +527,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">5% (Pharmacy Copay)</t>
+  </si>
+  <si>
     <t xml:space="preserve">10%</t>
   </si>
   <si>
@@ -542,6 +565,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">10% (Pharmacy Copay)</t>
+  </si>
+  <si>
     <t xml:space="preserve">15%</t>
   </si>
   <si>
@@ -577,6 +603,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">15% (Pharmacy Copay)</t>
+  </si>
+  <si>
     <t xml:space="preserve">20%</t>
   </si>
   <si>
@@ -612,6 +641,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">20% (Pharmacy Copay)</t>
+  </si>
+  <si>
     <t xml:space="preserve">25%</t>
   </si>
   <si>
@@ -647,6 +679,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">25% (Pharmacy Copay)</t>
+  </si>
+  <si>
     <t xml:space="preserve">30%</t>
   </si>
   <si>
@@ -682,6 +717,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">30% (Pharmacy Copay)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Covered up to AED 1,500 with Nil co-pay</t>
   </si>
   <si>
@@ -874,40 +912,61 @@
     <t xml:space="preserve">currency</t>
   </si>
   <si>
+    <t xml:space="preserve">none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default Option</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optional benefit Available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regional Plus- Elite/Regional Plus- Diamond/Regional Plus- Gold/Regional Plus- Silver/Regional Plus- Bronze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USD</t>
+  </si>
+  <si>
     <t xml:space="preserve">fixed</t>
   </si>
   <si>
+    <t xml:space="preserve">Dental Addon</t>
+  </si>
+  <si>
     <t xml:space="preserve">Covered up to AED 1,000 with 20% co-pay</t>
   </si>
   <si>
-    <t xml:space="preserve">USD</t>
-  </si>
-  <si>
     <t xml:space="preserve">Covered up to AED 3,500 with 20% co-pay</t>
   </si>
   <si>
-    <t xml:space="preserve">IP &amp; OP- Covered up to AED 10,000 with 10% co-pay (Optional Benefits Available)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP &amp; OP- Covered up to AED 7,500 with 10% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP &amp; OP- Covered up to AED 15,000 with 10% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP &amp; OP- Covered up to AED 20,00 with 10% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP &amp; OP- Covered up to AED 25,000 with 10% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP &amp; OP- Covered up to AED 30,000 with 10% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP &amp; OP- Covered up to AED 40,000 with 10% co-pay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP &amp; OP- Covered up to AED 50,000 with 10% co-pay</t>
+    <t xml:space="preserve">Maternity Addon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP- Covered in full IP- Covered up to AED 10,000 with 10% co-pay (Optional Benefits Available)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP- Covered in full &amp; IP- Covered up to AED 7,500 with 10% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP- Covered in full &amp; IP- Covered up to AED 15,000 with 10% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP- Covered in full &amp; IP- Covered up to AED 20,00 with 10% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP- Covered in full &amp; IP- Covered up to AED 25,000 with 10% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP- Covered in full &amp; IP- Covered up to AED 30,000 with 10% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP- Covered in full &amp; IP- Covered up to AED 40,000 with 10% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OP- Covered in full &amp; IP- Covered up to AED 50,000 with 10% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optical Addon</t>
   </si>
   <si>
     <t xml:space="preserve">Covered up to AED 300 with 20% co-pay</t>
@@ -929,7 +988,7 @@
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -964,6 +1023,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1017,7 +1082,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1054,6 +1119,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1063,6 +1140,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3D3D3D"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1082,6 +1176,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1093,7 +1195,7 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.98"/>
@@ -1747,7 +1849,7 @@
   <autoFilter ref="A1:F23"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1764,13 +1866,13 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.27"/>
@@ -1799,7 +1901,7 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1976,10 +2078,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2032,10 +2134,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2116,10 +2218,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2200,10 +2302,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2224,13 +2326,15 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H16"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2245,7 +2349,7 @@
       <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.18"/>
@@ -2281,10 +2385,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="D2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2306,10 +2410,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2331,10 +2435,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2356,10 +2460,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2381,10 +2485,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2404,7 +2508,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2423,7 +2527,7 @@
       <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.3"/>
@@ -2459,10 +2563,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="D2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2484,10 +2588,10 @@
         <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2509,10 +2613,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2534,10 +2638,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2559,10 +2663,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2584,10 +2688,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2609,10 +2713,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2632,7 +2736,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2647,13 +2751,14 @@
   </sheetPr>
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C63" activeCellId="0" sqref="C63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="55.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.09"/>
   </cols>
   <sheetData>
@@ -2673,13 +2778,13 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="0" t="s">
-        <v>47</v>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2688,10 +2793,10 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2701,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
@@ -2729,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
@@ -2744,10 +2849,10 @@
         <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2757,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
@@ -2772,10 +2877,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2785,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
@@ -2800,10 +2905,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2813,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>11</v>
@@ -2828,10 +2933,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2841,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>11</v>
@@ -2856,10 +2961,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2869,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>11</v>
@@ -2884,10 +2989,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2897,7 +3002,7 @@
         <v>-2.49999999999999</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>11</v>
@@ -2912,10 +3017,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2925,7 +3030,7 @@
         <v>-2.25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>11</v>
@@ -2940,10 +3045,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2953,7 +3058,7 @@
         <v>-2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
@@ -2968,10 +3073,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -2981,7 +3086,7 @@
         <v>-1.75</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>11</v>
@@ -2996,10 +3101,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3009,7 +3114,7 @@
         <v>-1.25</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>11</v>
@@ -3024,10 +3129,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3037,7 +3142,7 @@
         <v>-1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>11</v>
@@ -3052,10 +3157,10 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3065,7 +3170,7 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>11</v>
@@ -3080,10 +3185,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3093,7 +3198,7 @@
         <v>-0.5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>11</v>
@@ -3108,10 +3213,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3121,7 +3226,7 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>11</v>
@@ -3139,7 +3244,7 @@
         <v>49</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3149,7 +3254,7 @@
         <v>-2.49999999999999</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>11</v>
@@ -3167,7 +3272,7 @@
         <v>49</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3177,7 +3282,7 @@
         <v>-2.25</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>11</v>
@@ -3195,7 +3300,7 @@
         <v>49</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3205,7 +3310,7 @@
         <v>-2</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>11</v>
@@ -3223,7 +3328,7 @@
         <v>49</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3233,7 +3338,7 @@
         <v>-1.75</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>11</v>
@@ -3251,7 +3356,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3261,7 +3366,7 @@
         <v>-1.25</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>11</v>
@@ -3279,7 +3384,7 @@
         <v>49</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3289,7 +3394,7 @@
         <v>-1</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>11</v>
@@ -3307,7 +3412,7 @@
         <v>49</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3317,7 +3422,7 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>11</v>
@@ -3335,7 +3440,7 @@
         <v>49</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3345,7 +3450,7 @@
         <v>-0.5</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>11</v>
@@ -3363,7 +3468,7 @@
         <v>49</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3373,7 +3478,7 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>11</v>
@@ -3388,10 +3493,10 @@
         <v>8</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3401,7 +3506,7 @@
         <v>-2.49999999999999</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>11</v>
@@ -3416,10 +3521,10 @@
         <v>8</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3429,7 +3534,7 @@
         <v>-2.25</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>11</v>
@@ -3444,10 +3549,10 @@
         <v>8</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3457,7 +3562,7 @@
         <v>-2</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>11</v>
@@ -3472,10 +3577,10 @@
         <v>8</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3485,7 +3590,7 @@
         <v>-1.75</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>11</v>
@@ -3500,10 +3605,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D31" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3513,7 +3618,7 @@
         <v>-1.25</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>11</v>
@@ -3528,10 +3633,10 @@
         <v>8</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D32" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3541,7 +3646,7 @@
         <v>-1</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>11</v>
@@ -3556,10 +3661,10 @@
         <v>8</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D33" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3569,7 +3674,7 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>11</v>
@@ -3584,10 +3689,10 @@
         <v>8</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D34" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3597,7 +3702,7 @@
         <v>-0.5</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>11</v>
@@ -3612,10 +3717,10 @@
         <v>8</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D35" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3625,7 +3730,7 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>11</v>
@@ -3640,10 +3745,10 @@
         <v>8</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D36" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3653,7 +3758,7 @@
         <v>-2.49999999999999</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>11</v>
@@ -3668,10 +3773,10 @@
         <v>8</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D37" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3681,7 +3786,7 @@
         <v>-2.25</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>11</v>
@@ -3696,10 +3801,10 @@
         <v>8</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D38" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3709,7 +3814,7 @@
         <v>-2</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>11</v>
@@ -3724,10 +3829,10 @@
         <v>8</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D39" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3737,7 +3842,7 @@
         <v>-1.75</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>11</v>
@@ -3752,10 +3857,10 @@
         <v>8</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D40" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3765,7 +3870,7 @@
         <v>-1.25</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>11</v>
@@ -3780,10 +3885,10 @@
         <v>8</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D41" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3793,7 +3898,7 @@
         <v>-1</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>11</v>
@@ -3808,10 +3913,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D42" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3821,7 +3926,7 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>11</v>
@@ -3836,10 +3941,10 @@
         <v>8</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D43" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3849,7 +3954,7 @@
         <v>-0.5</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>11</v>
@@ -3864,10 +3969,10 @@
         <v>8</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D44" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3877,7 +3982,7 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>11</v>
@@ -3892,10 +3997,10 @@
         <v>8</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D45" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3905,7 +4010,7 @@
         <v>-2.49999999999999</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>11</v>
@@ -3920,10 +4025,10 @@
         <v>8</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D46" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3933,7 +4038,7 @@
         <v>-2.25</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>11</v>
@@ -3948,10 +4053,10 @@
         <v>8</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D47" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3961,7 +4066,7 @@
         <v>-2</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>11</v>
@@ -3976,10 +4081,10 @@
         <v>8</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D48" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3989,7 +4094,7 @@
         <v>-1.75</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>11</v>
@@ -4004,10 +4109,10 @@
         <v>8</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D49" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4017,7 +4122,7 @@
         <v>-1.25</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>11</v>
@@ -4032,10 +4137,10 @@
         <v>8</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D50" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4045,7 +4150,7 @@
         <v>-1</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>11</v>
@@ -4060,10 +4165,10 @@
         <v>8</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D51" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4073,7 +4178,7 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>11</v>
@@ -4088,10 +4193,10 @@
         <v>8</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D52" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4101,7 +4206,7 @@
         <v>-0.5</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>11</v>
@@ -4116,10 +4221,10 @@
         <v>8</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D53" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4129,7 +4234,7 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>11</v>
@@ -4144,10 +4249,10 @@
         <v>8</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D54" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4157,7 +4262,7 @@
         <v>-2.49999999999999</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>11</v>
@@ -4172,10 +4277,10 @@
         <v>8</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D55" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4185,7 +4290,7 @@
         <v>-2.25</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>11</v>
@@ -4200,10 +4305,10 @@
         <v>8</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D56" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4213,7 +4318,7 @@
         <v>-2</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>11</v>
@@ -4228,10 +4333,10 @@
         <v>8</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D57" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4241,7 +4346,7 @@
         <v>-1.75</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>11</v>
@@ -4256,10 +4361,10 @@
         <v>8</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D58" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4269,7 +4374,7 @@
         <v>-1.25</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>11</v>
@@ -4284,10 +4389,10 @@
         <v>8</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D59" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4297,7 +4402,7 @@
         <v>-1</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>11</v>
@@ -4312,10 +4417,10 @@
         <v>8</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D60" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4325,7 +4430,7 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>11</v>
@@ -4340,10 +4445,10 @@
         <v>8</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D61" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4353,7 +4458,7 @@
         <v>-0.5</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>11</v>
@@ -4368,10 +4473,10 @@
         <v>8</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D62" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4381,7 +4486,7 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>11</v>
@@ -4396,10 +4501,10 @@
         <v>8</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D63" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4409,7 +4514,7 @@
         <v>-2.49999999999999</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>11</v>
@@ -4424,10 +4529,10 @@
         <v>8</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D64" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4437,7 +4542,7 @@
         <v>-2.25</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>11</v>
@@ -4452,10 +4557,10 @@
         <v>8</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D65" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4465,7 +4570,7 @@
         <v>-2</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>11</v>
@@ -4480,10 +4585,10 @@
         <v>8</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D66" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4493,7 +4598,7 @@
         <v>-1.75</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>11</v>
@@ -4508,10 +4613,10 @@
         <v>8</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D67" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4521,7 +4626,7 @@
         <v>-1.25</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>11</v>
@@ -4536,10 +4641,10 @@
         <v>8</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D68" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4549,7 +4654,7 @@
         <v>-1</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>11</v>
@@ -4564,10 +4669,10 @@
         <v>8</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D69" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4577,7 +4682,7 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>11</v>
@@ -4592,10 +4697,10 @@
         <v>8</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D70" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4605,7 +4710,7 @@
         <v>-0.5</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>11</v>
@@ -4620,10 +4725,10 @@
         <v>8</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D71" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4633,7 +4738,7 @@
         <v>-0.249999999999995</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>11</v>
@@ -4644,13 +4749,15 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H71"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4659,18 +4766,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="41.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.53"/>
   </cols>
   <sheetData>
@@ -4697,37 +4804,34 @@
         <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>605.439306358382</v>
-      </c>
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4736,13 +4840,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4752,13 +4856,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>665.317919075145</v>
+        <v>605.439306358382</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4767,13 +4871,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4783,13 +4887,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>844.953757225434</v>
+        <v>665.317919075145</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4798,13 +4902,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4814,13 +4918,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>904.832369942197</v>
+        <v>844.953757225434</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4829,13 +4933,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4845,13 +4949,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>971.364161849711</v>
+        <v>904.832369942197</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4860,13 +4964,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4876,13 +4980,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1151</v>
+        <v>971.364161849711</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4891,13 +4995,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4907,13 +5011,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1270.75722543353</v>
+        <v>1151</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4922,13 +5026,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4938,13 +5042,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1816.31791907514</v>
+        <v>1270.75722543353</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4953,29 +5057,29 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>401.397260273973</v>
+        <v>1816.31791907514</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -4984,13 +5088,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5000,13 +5104,13 @@
         <v>18</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>441.095890410959</v>
+        <v>401.397260273973</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5015,13 +5119,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5031,13 +5135,13 @@
         <v>18</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>560.191780821918</v>
+        <v>441.095890410959</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5046,13 +5150,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5062,13 +5166,13 @@
         <v>18</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>599.890410958904</v>
+        <v>560.191780821918</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5077,13 +5181,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5093,13 +5197,13 @@
         <v>18</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>644</v>
+        <v>599.890410958904</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5108,13 +5212,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="D15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5124,13 +5228,13 @@
         <v>18</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>763.095890410959</v>
+        <v>644</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5139,13 +5243,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5155,13 +5259,13 @@
         <v>18</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>842.493150684932</v>
+        <v>763.095890410959</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5170,29 +5274,29 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>214.96062992126</v>
+        <v>842.493150684932</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5201,13 +5305,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="D18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5217,13 +5321,13 @@
         <v>19</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>236.220472440945</v>
+        <v>214.96062992126</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5232,13 +5336,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5248,13 +5352,13 @@
         <v>19</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>300</v>
+        <v>236.220472440945</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5263,13 +5367,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5279,13 +5383,13 @@
         <v>19</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>321.259842519685</v>
+        <v>300</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5294,13 +5398,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5310,13 +5414,13 @@
         <v>19</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>344.881889763779</v>
+        <v>321.259842519685</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5325,13 +5429,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="D22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5341,13 +5445,13 @@
         <v>19</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>408.661417322835</v>
+        <v>344.881889763779</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5356,29 +5460,29 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="D23" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>156</v>
+        <v>408.661417322835</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5387,13 +5491,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5403,13 +5507,13 @@
         <v>20</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>171.428571428571</v>
+        <v>156</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5418,13 +5522,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5434,13 +5538,13 @@
         <v>20</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>217.714285714286</v>
+        <v>171.428571428571</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5449,13 +5553,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5465,13 +5569,13 @@
         <v>20</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>233.142857142857</v>
+        <v>217.714285714286</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5480,13 +5584,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5496,13 +5600,13 @@
         <v>20</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>250.285714285714</v>
+        <v>233.142857142857</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5511,29 +5615,29 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>156</v>
+        <v>250.285714285714</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I28" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5542,13 +5646,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5558,13 +5662,13 @@
         <v>21</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>171.428571428571</v>
+        <v>156</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5573,13 +5677,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5589,24 +5693,55 @@
         <v>21</v>
       </c>
       <c r="F30" s="0" t="n">
+        <v>171.428571428571</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I30" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="0" t="n">
         <v>217.714285714286</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="I30" s="4" t="n">
+      <c r="G31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I31" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F30"/>
+  <autoFilter ref="A1:F31"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -5623,13 +5758,14 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="75.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="75.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.71"/>
@@ -5659,7 +5795,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>7</v>
@@ -5667,13 +5803,13 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="D2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5689,7 +5825,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5698,13 +5834,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5720,7 +5856,7 @@
         <v>11</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5729,13 +5865,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5751,7 +5887,7 @@
         <v>11</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5760,13 +5896,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5782,7 +5918,7 @@
         <v>11</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5791,13 +5927,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5813,7 +5949,7 @@
         <v>11</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5822,13 +5958,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5844,7 +5980,7 @@
         <v>11</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5853,13 +5989,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5875,7 +6011,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5884,13 +6020,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>136</v>
+        <v>136</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5906,7 +6042,7 @@
         <v>11</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5915,13 +6051,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5937,7 +6073,7 @@
         <v>11</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5946,13 +6082,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5968,7 +6104,7 @@
         <v>11</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5977,13 +6113,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5999,7 +6135,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6008,13 +6144,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6030,7 +6166,7 @@
         <v>11</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6039,13 +6175,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6061,7 +6197,7 @@
         <v>11</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6070,13 +6206,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6092,7 +6228,7 @@
         <v>11</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6101,13 +6237,13 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6123,7 +6259,7 @@
         <v>11</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6132,13 +6268,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>136</v>
+        <v>136</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6154,7 +6290,7 @@
         <v>11</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6163,13 +6299,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="D18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6185,7 +6321,7 @@
         <v>11</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6194,13 +6330,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6216,7 +6352,7 @@
         <v>11</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6225,13 +6361,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6247,7 +6383,7 @@
         <v>11</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6256,13 +6392,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="D21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6278,7 +6414,7 @@
         <v>11</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6287,13 +6423,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6309,7 +6445,7 @@
         <v>11</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6318,13 +6454,13 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6340,7 +6476,7 @@
         <v>11</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6349,13 +6485,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6371,7 +6507,7 @@
         <v>11</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6380,13 +6516,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6402,7 +6538,7 @@
         <v>11</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6411,13 +6547,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6433,7 +6569,7 @@
         <v>11</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6442,13 +6578,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6464,7 +6600,7 @@
         <v>11</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6473,13 +6609,13 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>129</v>
+        <v>136</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6495,7 +6631,7 @@
         <v>11</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I28" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6504,13 +6640,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6526,7 +6662,7 @@
         <v>11</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6535,13 +6671,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>131</v>
+        <v>136</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>140</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6557,7 +6693,7 @@
         <v>11</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6568,7 +6704,7 @@
   <autoFilter ref="A1:F30"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6582,13 +6718,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G37" activeCellId="0" sqref="G37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="47.56"/>
@@ -6619,37 +6755,34 @@
         <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>165.426751592357</v>
-      </c>
+    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6658,13 +6791,13 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6674,13 +6807,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>246.216560509554</v>
+        <v>165.426751592357</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6689,13 +6822,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6705,13 +6838,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>330.853503184713</v>
+        <v>246.216560509554</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6720,13 +6853,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6736,13 +6869,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>384.713375796178</v>
+        <v>330.853503184713</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6751,13 +6884,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6767,13 +6900,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>496.28025477707</v>
+        <v>384.713375796178</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6782,13 +6915,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6798,13 +6931,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>550.140127388535</v>
+        <v>496.28025477707</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6813,13 +6946,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6829,13 +6962,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>604</v>
+        <v>550.140127388535</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6844,29 +6977,29 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>138.020979020979</v>
+        <v>604</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6875,13 +7008,13 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6891,13 +7024,13 @@
         <v>18</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>205.426573426573</v>
+        <v>138.020979020979</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6906,13 +7039,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6922,13 +7055,13 @@
         <v>18</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>276.041958041958</v>
+        <v>205.426573426573</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6937,13 +7070,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6953,13 +7086,13 @@
         <v>18</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>320.979020979021</v>
+        <v>276.041958041958</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6968,13 +7101,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6984,13 +7117,13 @@
         <v>18</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>414.062937062937</v>
+        <v>320.979020979021</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6999,13 +7132,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7015,13 +7148,13 @@
         <v>18</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>459</v>
+        <v>414.062937062937</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7030,13 +7163,13 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7046,13 +7179,13 @@
         <v>18</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>503.937062937063</v>
+        <v>459</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7061,29 +7194,29 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>74.39</v>
+        <v>503.937062937063</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7092,13 +7225,13 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7108,13 +7241,13 @@
         <v>19</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>110.72</v>
+        <v>74.39</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7123,13 +7256,13 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7139,13 +7272,13 @@
         <v>19</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>148.78</v>
+        <v>110.72</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7154,13 +7287,13 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7170,13 +7303,13 @@
         <v>19</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>173</v>
+        <v>148.78</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7185,13 +7318,13 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="D20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7201,13 +7334,13 @@
         <v>19</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>223.17</v>
+        <v>173</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7216,13 +7349,13 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7232,13 +7365,13 @@
         <v>19</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>247.39</v>
+        <v>223.17</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7247,13 +7380,13 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7263,13 +7396,13 @@
         <v>19</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>271.61</v>
+        <v>247.39</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7278,29 +7411,29 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="D23" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>40</v>
+        <v>271.61</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7309,13 +7442,13 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7325,13 +7458,13 @@
         <v>20</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>59.5348837209302</v>
+        <v>40</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7340,13 +7473,13 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7356,13 +7489,13 @@
         <v>20</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>80</v>
+        <v>59.5348837209302</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7371,13 +7504,13 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7387,13 +7520,13 @@
         <v>20</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>93.0232558139535</v>
+        <v>80</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7402,13 +7535,13 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7418,13 +7551,13 @@
         <v>20</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>120</v>
+        <v>93.0232558139535</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7433,29 +7566,29 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I28" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7464,13 +7597,13 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7480,13 +7613,13 @@
         <v>21</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>59.5348837209302</v>
+        <v>40</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7495,13 +7628,13 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7511,13 +7644,13 @@
         <v>21</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>80</v>
+        <v>59.5348837209302</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="I30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7526,13 +7659,13 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="D31" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7542,24 +7675,55 @@
         <v>21</v>
       </c>
       <c r="F31" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I31" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="0" t="n">
         <v>93.0232558139535</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="I31" s="4" t="n">
+      <c r="G32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="I32" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F31"/>
+  <autoFilter ref="A1:F32"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Inputs/Orange/V2/addons.xlsx
+++ b/Inputs/Orange/V2/addons.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Annual Limit" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,14 +16,20 @@
     <sheet name="Dental" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Maternity (Consultations, Scans" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="Optical Benefits" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Maternity Waiting Period" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Complications of Pregnancy" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="New Born Cover" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Maternity-Addon" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Accommodation Type'!$A$1:$H$16</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Annual Limit'!$A$1:$F$23</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Dental!$A$1:$F$31</definedName>
-    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'Maternity (Consultations, Scans'!$A$1:$F$30</definedName>
-    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'Optical Benefits'!$A$1:$F$32</definedName>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">Dental!$A$1:$F$28</definedName>
+    <definedName function="false" hidden="true" localSheetId="6" name="_xlnm._FilterDatabase" vbProcedure="false">'Maternity (Consultations, Scans'!$A$1:$E$30</definedName>
+    <definedName function="false" hidden="true" localSheetId="7" name="_xlnm._FilterDatabase" vbProcedure="false">'Optical Benefits'!$A$1:$F$30</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'Out-patient Consultations'!$A$1:$G$8</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Out-patient Medicines'!$A$1:$H$71</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'Scans &amp; Diagnostic Tests'!$A$1:$G$6</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="169">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -64,7 +70,7 @@
     <t xml:space="preserve">percentage</t>
   </si>
   <si>
-    <t xml:space="preserve">AED 2,50,000</t>
+    <t xml:space="preserve">AED 250,000</t>
   </si>
   <si>
     <t xml:space="preserve">Regional Plus- Elite</t>
@@ -73,22 +79,22 @@
     <t xml:space="preserve">inside options arr</t>
   </si>
   <si>
-    <t xml:space="preserve">AED 3,00,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AED 5,00,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AED 10,00,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AED 15,00,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AED 20,00,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AED 25,00,000</t>
+    <t xml:space="preserve">AED 300,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 500,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 1,000,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 1,500,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 2,000,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AED 2,500,000</t>
   </si>
   <si>
     <t xml:space="preserve">Regional Plus- Diamond</t>
@@ -478,7 +484,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Nil </t>
+      <t xml:space="preserve">Nil</t>
     </r>
     <r>
       <rPr>
@@ -488,7 +494,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">(Pharmacy Copay)</t>
+      <t xml:space="preserve"> (Pharmacy Copay)</t>
     </r>
   </si>
   <si>
@@ -527,7 +533,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">5% (Pharmacy Copay)</t>
+    <t xml:space="preserve">5% (Pharmacy Co-pay)</t>
   </si>
   <si>
     <t xml:space="preserve">10%</t>
@@ -565,7 +571,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">10% (Pharmacy Copay)</t>
+    <t xml:space="preserve">10% (Pharmacy Co-pay)</t>
   </si>
   <si>
     <t xml:space="preserve">15%</t>
@@ -603,7 +609,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">15% (Pharmacy Copay)</t>
+    <t xml:space="preserve">15% (Pharmacy Co-pay)</t>
   </si>
   <si>
     <t xml:space="preserve">20%</t>
@@ -641,7 +647,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">20% (Pharmacy Copay)</t>
+    <t xml:space="preserve">20% (Pharmacy Co-pay)</t>
   </si>
   <si>
     <t xml:space="preserve">25%</t>
@@ -679,7 +685,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">25% (Pharmacy Copay)</t>
+    <t xml:space="preserve">25% (Pharmacy Co-pay)</t>
   </si>
   <si>
     <t xml:space="preserve">30%</t>
@@ -717,12 +723,15 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">30% (Pharmacy Copay)</t>
+    <t xml:space="preserve">30% (Pharmacy Co-pay)</t>
   </si>
   <si>
     <t xml:space="preserve">Covered up to AED 1,500 with Nil co-pay</t>
   </si>
   <si>
+    <t xml:space="preserve">Nil (Pharmacy Co-pay)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Covered up to AED 2,000 with Nil co-pay</t>
   </si>
   <si>
@@ -744,7 +753,7 @@
     <t xml:space="preserve">Covered up to AED 15,000 with Nil co-pay</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered up to AED 20,000 with Nil co-pay</t>
+    <t xml:space="preserve">Covered up to AED 20,000 with 5% co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">Covered up to AED 1,500 with 5% co-pay</t>
@@ -771,9 +780,6 @@
     <t xml:space="preserve">Covered up to AED 15,000 with 5% co-pay</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered up to AED 20,000 with 5% co-pay</t>
-  </si>
-  <si>
     <t xml:space="preserve">Covered up to AED 1,500 with 10% co-pay</t>
   </si>
   <si>
@@ -939,12 +945,39 @@
     <t xml:space="preserve">Covered up to AED 3,500 with 20% co-pay</t>
   </si>
   <si>
+    <t xml:space="preserve">gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maritalStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sheetName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conditional-fixed</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maternity Addon</t>
   </si>
   <si>
     <t xml:space="preserve">OP- Covered in full IP- Covered up to AED 10,000 with 10% co-pay (Optional Benefits Available)</t>
   </si>
   <si>
+    <t xml:space="preserve">female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">married</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maternity-Addon</t>
+  </si>
+  <si>
     <t xml:space="preserve">OP- Covered in full &amp; IP- Covered up to AED 7,500 with 10% co-pay</t>
   </si>
   <si>
@@ -966,6 +999,18 @@
     <t xml:space="preserve">OP- Covered in full &amp; IP- Covered up to AED 50,000 with 10% co-pay</t>
   </si>
   <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5</t>
+  </si>
+  <si>
     <t xml:space="preserve">Optical Addon</t>
   </si>
   <si>
@@ -976,6 +1021,15 @@
   </si>
   <si>
     <t xml:space="preserve">Covered up to AED 750 with 20% co-pay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">280-day waiting period applies to non-declared pregnancies. However, no waiting period is applicable for declared ongoing pregnancies or declared planned pregnancies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered up to 30 days</t>
   </si>
 </sst>
 </file>
@@ -988,7 +1042,7 @@
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1018,6 +1072,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1028,7 +1089,8 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1082,7 +1144,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1103,6 +1165,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1119,15 +1185,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1184,6 +1258,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1192,10 +1274,10 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.98"/>
@@ -1229,7 +1311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
@@ -1246,8 +1328,8 @@
       <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>-9.17347865576749</v>
+      <c r="F2" s="5" t="n">
+        <v>-9.17</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>11</v>
@@ -1257,7 +1339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
@@ -1274,8 +1356,8 @@
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>-7.53860127157129</v>
+      <c r="F3" s="5" t="n">
+        <v>-7.54</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
@@ -1285,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
@@ -1302,8 +1384,8 @@
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>-5.99455040871936</v>
+      <c r="F4" s="5" t="n">
+        <v>-5.99</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
@@ -1313,7 +1395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
@@ -1330,8 +1412,8 @@
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>-4.63215258855584</v>
+      <c r="F5" s="5" t="n">
+        <v>-4.63</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
@@ -1341,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
@@ -1358,7 +1440,7 @@
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1369,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>8</v>
       </c>
@@ -1386,8 +1468,8 @@
       <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <v>1.81653042688466</v>
+      <c r="F7" s="5" t="n">
+        <v>1.82</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>11</v>
@@ -1397,7 +1479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1414,8 +1496,8 @@
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <v>3.63306085376931</v>
+      <c r="F8" s="5" t="n">
+        <v>3.63</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>11</v>
@@ -1425,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>8</v>
       </c>
@@ -1442,8 +1524,8 @@
       <c r="E9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <v>-4.76190476190476</v>
+      <c r="F9" s="5" t="n">
+        <v>-4.76</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>11</v>
@@ -1453,7 +1535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>8</v>
       </c>
@@ -1470,8 +1552,8 @@
       <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="0" t="n">
-        <v>-3.04761904761905</v>
+      <c r="F10" s="5" t="n">
+        <v>-3.05</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>11</v>
@@ -1481,7 +1563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>8</v>
       </c>
@@ -1498,8 +1580,8 @@
       <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <v>-1.42857142857143</v>
+      <c r="F11" s="5" t="n">
+        <v>-1.43</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
@@ -1509,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>8</v>
       </c>
@@ -1526,7 +1608,7 @@
       <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1537,7 +1619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>8</v>
       </c>
@@ -1554,8 +1636,8 @@
       <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <v>4.85714285714285</v>
+      <c r="F13" s="5" t="n">
+        <v>4.86</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>11</v>
@@ -1565,7 +1647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>8</v>
       </c>
@@ -1582,8 +1664,8 @@
       <c r="E14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <v>6.76190476190475</v>
+      <c r="F14" s="5" t="n">
+        <v>6.76000000000001</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>11</v>
@@ -1607,11 +1689,11 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>-3.38164251207728</v>
+        <v>-3.38000000000001</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>11</v>
@@ -1635,11 +1717,11 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>-1.64251207729468</v>
+        <v>-1.64</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>11</v>
@@ -1663,7 +1745,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="0" t="n">
@@ -1691,11 +1773,11 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1.44927536231885</v>
+        <v>1.45</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>11</v>
@@ -1719,7 +1801,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F19" s="0" t="n">
@@ -1747,7 +1829,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="0" t="n">
@@ -1775,7 +1857,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="6" t="s">
         <v>20</v>
       </c>
       <c r="F21" s="0" t="n">
@@ -1803,7 +1885,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F22" s="0" t="n">
@@ -1831,7 +1913,7 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F23" s="0" t="n">
@@ -1858,6 +1940,955 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="15.68"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.09"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>3955</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>3799</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>5204</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
+        <v>5620</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>5932</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
+        <v>6609</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
+        <v>6713</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
+        <v>6921</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>3666</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>3522</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
+        <v>4824</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
+        <v>5210</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>5500</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>6127</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
+        <v>6223</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>6416</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
+        <v>2607</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>2505</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
+        <v>3431</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
+        <v>3705</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>3911</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
+        <v>4357</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>2383</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>2289</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
+        <v>3135</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>3386</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
+        <v>1926</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>2639</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1866,10 +2897,10 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="17.27"/>
@@ -1909,10 +2940,10 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="4" t="n">
@@ -1937,10 +2968,10 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="4" t="n">
@@ -1965,10 +2996,10 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="4" t="n">
@@ -1993,10 +3024,10 @@
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="4" t="n">
@@ -2021,10 +3052,10 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="4" t="n">
@@ -2049,10 +3080,10 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="4" t="n">
@@ -2077,10 +3108,10 @@
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="4" t="n">
@@ -2105,10 +3136,10 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="4" t="n">
@@ -2133,10 +3164,10 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="4" t="n">
@@ -2161,10 +3192,10 @@
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="4" t="n">
@@ -2189,10 +3220,10 @@
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="4" t="n">
@@ -2217,10 +3248,10 @@
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="4" t="n">
@@ -2245,10 +3276,10 @@
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="4" t="n">
@@ -2273,10 +3304,10 @@
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D15" s="4" t="n">
@@ -2301,10 +3332,10 @@
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="4" t="n">
@@ -2346,10 +3377,10 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.18"/>
@@ -2376,7 +3407,7 @@
       <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2409,7 +3440,7 @@
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2434,7 +3465,7 @@
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -2459,7 +3490,7 @@
       <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2484,7 +3515,7 @@
       <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2506,6 +3537,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G6"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2513,6 +3545,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2524,10 +3557,10 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.3"/>
@@ -2554,7 +3587,7 @@
       <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2587,7 +3620,7 @@
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2612,7 +3645,7 @@
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -2637,7 +3670,7 @@
       <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2662,7 +3695,7 @@
       <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2687,7 +3720,7 @@
       <c r="A7" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -2712,7 +3745,7 @@
       <c r="A8" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2734,6 +3767,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G8"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2741,6 +3775,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2751,11 +3786,11 @@
   </sheetPr>
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="55.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.88"/>
@@ -2820,7 +3855,7 @@
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -2833,7 +3868,7 @@
       <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="1" t="s">
         <v>51</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -2848,7 +3883,7 @@
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -2861,7 +3896,7 @@
       <c r="E4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -2876,7 +3911,7 @@
       <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -2889,7 +3924,7 @@
       <c r="E5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -2904,7 +3939,7 @@
       <c r="A6" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2917,7 +3952,7 @@
       <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -2932,7 +3967,7 @@
       <c r="A7" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -2945,7 +3980,7 @@
       <c r="E7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -2960,7 +3995,7 @@
       <c r="A8" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2973,7 +4008,7 @@
       <c r="E8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="9" t="s">
         <v>66</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -2999,10 +4034,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>-2.49999999999999</v>
+        <v>-2.5</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>11</v>
@@ -3020,7 +4055,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3030,7 +4065,7 @@
         <v>-2.25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>11</v>
@@ -3048,7 +4083,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3058,7 +4093,7 @@
         <v>-2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
@@ -3076,7 +4111,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3086,7 +4121,7 @@
         <v>-1.75</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>11</v>
@@ -3104,7 +4139,7 @@
         <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3114,7 +4149,7 @@
         <v>-1.25</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>11</v>
@@ -3132,7 +4167,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3142,7 +4177,7 @@
         <v>-1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>11</v>
@@ -3160,7 +4195,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3170,7 +4205,7 @@
         <v>-0.749999999999995</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>11</v>
@@ -3188,7 +4223,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3198,7 +4233,7 @@
         <v>-0.5</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>11</v>
@@ -3212,21 +4247,21 @@
       <c r="A17" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="10" t="n">
         <v>-0.249999999999995</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>11</v>
@@ -3240,20 +4275,20 @@
       <c r="A18" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18" s="4" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>-2.49999999999999</v>
-      </c>
-      <c r="F18" s="8" t="s">
+        <v>-2.5</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -3268,11 +4303,11 @@
       <c r="A19" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3281,7 +4316,7 @@
       <c r="E19" s="0" t="n">
         <v>-2.25</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -3296,11 +4331,11 @@
       <c r="A20" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3309,7 +4344,7 @@
       <c r="E20" s="0" t="n">
         <v>-2</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -3324,11 +4359,11 @@
       <c r="A21" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3337,7 +4372,7 @@
       <c r="E21" s="0" t="n">
         <v>-1.75</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -3352,11 +4387,11 @@
       <c r="A22" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3365,7 +4400,7 @@
       <c r="E22" s="0" t="n">
         <v>-1.25</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -3380,11 +4415,11 @@
       <c r="A23" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3393,7 +4428,7 @@
       <c r="E23" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -3408,11 +4443,11 @@
       <c r="A24" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3421,7 +4456,7 @@
       <c r="E24" s="0" t="n">
         <v>-0.749999999999995</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -3436,11 +4471,11 @@
       <c r="A25" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3449,7 +4484,7 @@
       <c r="E25" s="0" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -3464,11 +4499,11 @@
       <c r="A26" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -3477,7 +4512,7 @@
       <c r="E26" s="0" t="n">
         <v>-0.249999999999995</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="9" t="s">
         <v>51</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -3492,7 +4527,7 @@
       <c r="A27" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -3503,9 +4538,9 @@
         <v>1</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>-2.49999999999999</v>
-      </c>
-      <c r="F27" s="8" t="s">
+        <v>-2.5</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -3520,7 +4555,7 @@
       <c r="A28" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -3533,7 +4568,7 @@
       <c r="E28" s="0" t="n">
         <v>-2.25</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -3548,7 +4583,7 @@
       <c r="A29" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -3561,7 +4596,7 @@
       <c r="E29" s="0" t="n">
         <v>-2</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -3576,7 +4611,7 @@
       <c r="A30" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -3589,7 +4624,7 @@
       <c r="E30" s="0" t="n">
         <v>-1.75</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -3604,7 +4639,7 @@
       <c r="A31" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -3617,7 +4652,7 @@
       <c r="E31" s="0" t="n">
         <v>-1.25</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -3632,7 +4667,7 @@
       <c r="A32" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -3645,7 +4680,7 @@
       <c r="E32" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -3660,7 +4695,7 @@
       <c r="A33" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -3673,7 +4708,7 @@
       <c r="E33" s="0" t="n">
         <v>-0.749999999999995</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -3688,7 +4723,7 @@
       <c r="A34" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -3701,7 +4736,7 @@
       <c r="E34" s="0" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G34" s="2" t="s">
@@ -3712,11 +4747,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -3726,10 +4761,10 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="5" t="n">
         <v>-0.249999999999995</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -3744,7 +4779,7 @@
       <c r="A36" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -3755,9 +4790,9 @@
         <v>1</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>-2.49999999999999</v>
-      </c>
-      <c r="F36" s="8" t="s">
+        <v>-2.5</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G36" s="2" t="s">
@@ -3772,7 +4807,7 @@
       <c r="A37" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -3785,7 +4820,7 @@
       <c r="E37" s="0" t="n">
         <v>-2.25</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G37" s="2" t="s">
@@ -3800,7 +4835,7 @@
       <c r="A38" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -3813,7 +4848,7 @@
       <c r="E38" s="0" t="n">
         <v>-2</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -3828,7 +4863,7 @@
       <c r="A39" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -3841,7 +4876,7 @@
       <c r="E39" s="0" t="n">
         <v>-1.75</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G39" s="2" t="s">
@@ -3856,7 +4891,7 @@
       <c r="A40" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -3869,7 +4904,7 @@
       <c r="E40" s="0" t="n">
         <v>-1.25</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G40" s="2" t="s">
@@ -3884,7 +4919,7 @@
       <c r="A41" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -3897,7 +4932,7 @@
       <c r="E41" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G41" s="2" t="s">
@@ -3912,7 +4947,7 @@
       <c r="A42" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -3925,7 +4960,7 @@
       <c r="E42" s="0" t="n">
         <v>-0.749999999999995</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G42" s="2" t="s">
@@ -3940,7 +4975,7 @@
       <c r="A43" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -3953,7 +4988,7 @@
       <c r="E43" s="0" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G43" s="2" t="s">
@@ -3964,11 +4999,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -3978,10 +5013,10 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44" s="5" t="n">
         <v>-0.249999999999995</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G44" s="2" t="s">
@@ -3996,7 +5031,7 @@
       <c r="A45" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -4007,9 +5042,9 @@
         <v>1</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>-2.49999999999999</v>
-      </c>
-      <c r="F45" s="8" t="s">
+        <v>-2.5</v>
+      </c>
+      <c r="F45" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G45" s="2" t="s">
@@ -4024,7 +5059,7 @@
       <c r="A46" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -4037,7 +5072,7 @@
       <c r="E46" s="0" t="n">
         <v>-2.25</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G46" s="2" t="s">
@@ -4052,7 +5087,7 @@
       <c r="A47" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -4065,7 +5100,7 @@
       <c r="E47" s="0" t="n">
         <v>-2</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G47" s="2" t="s">
@@ -4080,7 +5115,7 @@
       <c r="A48" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -4093,7 +5128,7 @@
       <c r="E48" s="0" t="n">
         <v>-1.75</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G48" s="2" t="s">
@@ -4108,7 +5143,7 @@
       <c r="A49" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -4121,7 +5156,7 @@
       <c r="E49" s="0" t="n">
         <v>-1.25</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G49" s="2" t="s">
@@ -4136,7 +5171,7 @@
       <c r="A50" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -4149,7 +5184,7 @@
       <c r="E50" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G50" s="2" t="s">
@@ -4164,7 +5199,7 @@
       <c r="A51" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -4177,7 +5212,7 @@
       <c r="E51" s="0" t="n">
         <v>-0.749999999999995</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G51" s="2" t="s">
@@ -4192,7 +5227,7 @@
       <c r="A52" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -4205,7 +5240,7 @@
       <c r="E52" s="0" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G52" s="2" t="s">
@@ -4216,11 +5251,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -4230,10 +5265,10 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53" s="5" t="n">
         <v>-0.249999999999995</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="9" t="s">
         <v>60</v>
       </c>
       <c r="G53" s="2" t="s">
@@ -4248,7 +5283,7 @@
       <c r="A54" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -4259,9 +5294,9 @@
         <v>1</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>-2.49999999999999</v>
-      </c>
-      <c r="F54" s="8" t="s">
+        <v>-2.5</v>
+      </c>
+      <c r="F54" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G54" s="2" t="s">
@@ -4276,7 +5311,7 @@
       <c r="A55" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -4289,7 +5324,7 @@
       <c r="E55" s="0" t="n">
         <v>-2.25</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G55" s="2" t="s">
@@ -4304,7 +5339,7 @@
       <c r="A56" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -4317,7 +5352,7 @@
       <c r="E56" s="0" t="n">
         <v>-2</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G56" s="2" t="s">
@@ -4332,7 +5367,7 @@
       <c r="A57" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -4345,7 +5380,7 @@
       <c r="E57" s="0" t="n">
         <v>-1.75</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G57" s="2" t="s">
@@ -4360,7 +5395,7 @@
       <c r="A58" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -4373,7 +5408,7 @@
       <c r="E58" s="0" t="n">
         <v>-1.25</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G58" s="2" t="s">
@@ -4388,7 +5423,7 @@
       <c r="A59" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -4401,7 +5436,7 @@
       <c r="E59" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G59" s="2" t="s">
@@ -4416,7 +5451,7 @@
       <c r="A60" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C60" s="3" t="s">
@@ -4429,7 +5464,7 @@
       <c r="E60" s="0" t="n">
         <v>-0.749999999999995</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G60" s="2" t="s">
@@ -4444,7 +5479,7 @@
       <c r="A61" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -4457,7 +5492,7 @@
       <c r="E61" s="0" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G61" s="2" t="s">
@@ -4468,11 +5503,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -4482,10 +5517,10 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E62" s="0" t="n">
+      <c r="E62" s="5" t="n">
         <v>-0.249999999999995</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="9" t="s">
         <v>63</v>
       </c>
       <c r="G62" s="2" t="s">
@@ -4500,7 +5535,7 @@
       <c r="A63" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C63" s="3" t="s">
@@ -4511,9 +5546,9 @@
         <v>1</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>-2.49999999999999</v>
-      </c>
-      <c r="F63" s="8" t="s">
+        <v>-2.5</v>
+      </c>
+      <c r="F63" s="9" t="s">
         <v>66</v>
       </c>
       <c r="G63" s="2" t="s">
@@ -4528,7 +5563,7 @@
       <c r="A64" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -4541,7 +5576,7 @@
       <c r="E64" s="0" t="n">
         <v>-2.25</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="9" t="s">
         <v>66</v>
       </c>
       <c r="G64" s="2" t="s">
@@ -4556,7 +5591,7 @@
       <c r="A65" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -4569,7 +5604,7 @@
       <c r="E65" s="0" t="n">
         <v>-2</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="9" t="s">
         <v>66</v>
       </c>
       <c r="G65" s="2" t="s">
@@ -4584,7 +5619,7 @@
       <c r="A66" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -4597,7 +5632,7 @@
       <c r="E66" s="0" t="n">
         <v>-1.75</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="9" t="s">
         <v>66</v>
       </c>
       <c r="G66" s="2" t="s">
@@ -4612,7 +5647,7 @@
       <c r="A67" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C67" s="3" t="s">
@@ -4625,7 +5660,7 @@
       <c r="E67" s="0" t="n">
         <v>-1.25</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="9" t="s">
         <v>66</v>
       </c>
       <c r="G67" s="2" t="s">
@@ -4640,7 +5675,7 @@
       <c r="A68" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -4653,7 +5688,7 @@
       <c r="E68" s="0" t="n">
         <v>-1</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="9" t="s">
         <v>66</v>
       </c>
       <c r="G68" s="2" t="s">
@@ -4668,7 +5703,7 @@
       <c r="A69" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -4681,7 +5716,7 @@
       <c r="E69" s="0" t="n">
         <v>-0.749999999999995</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="9" t="s">
         <v>66</v>
       </c>
       <c r="G69" s="2" t="s">
@@ -4696,7 +5731,7 @@
       <c r="A70" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -4709,7 +5744,7 @@
       <c r="E70" s="0" t="n">
         <v>-0.5</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="9" t="s">
         <v>66</v>
       </c>
       <c r="G70" s="2" t="s">
@@ -4720,11 +5755,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C71" s="3" t="s">
@@ -4734,10 +5769,10 @@
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="E71" s="5" t="n">
         <v>-0.249999999999995</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="9" t="s">
         <v>66</v>
       </c>
       <c r="G71" s="2" t="s">
@@ -4772,12 +5807,12 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="41.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="41.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.53"/>
   </cols>
   <sheetData>
@@ -4820,10 +5855,11 @@
       <c r="C2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F2" s="1"/>
@@ -4855,8 +5891,8 @@
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>605.439306358382</v>
+      <c r="F3" s="2" t="n">
+        <v>601</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
@@ -4886,8 +5922,8 @@
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>665.317919075145</v>
+      <c r="F4" s="2" t="n">
+        <v>661</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
@@ -4917,8 +5953,8 @@
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>844.953757225434</v>
+      <c r="F5" s="2" t="n">
+        <v>839</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
@@ -4948,8 +5984,8 @@
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>904.832369942197</v>
+      <c r="F6" s="2" t="n">
+        <v>899</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>11</v>
@@ -4979,8 +6015,8 @@
       <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <v>971.364161849711</v>
+      <c r="F7" s="2" t="n">
+        <v>965</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>11</v>
@@ -5010,8 +6046,8 @@
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <v>1151</v>
+      <c r="F8" s="2" t="n">
+        <v>1143</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>11</v>
@@ -5041,8 +6077,8 @@
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <v>1270.75722543353</v>
+      <c r="F9" s="2" t="n">
+        <v>1262</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>11</v>
@@ -5072,8 +6108,8 @@
       <c r="E10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="0" t="n">
-        <v>1816.31791907514</v>
+      <c r="F10" s="2" t="n">
+        <v>1804</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>11</v>
@@ -5103,8 +6139,8 @@
       <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <v>401.397260273973</v>
+      <c r="F11" s="2" t="n">
+        <v>399</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
@@ -5134,8 +6170,8 @@
       <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="0" t="n">
-        <v>441.095890410959</v>
+      <c r="F12" s="2" t="n">
+        <v>438</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>11</v>
@@ -5165,8 +6201,8 @@
       <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <v>560.191780821918</v>
+      <c r="F13" s="2" t="n">
+        <v>556</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>11</v>
@@ -5196,8 +6232,8 @@
       <c r="E14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <v>599.890410958904</v>
+      <c r="F14" s="2" t="n">
+        <v>596</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>11</v>
@@ -5227,8 +6263,8 @@
       <c r="E15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="0" t="n">
-        <v>644</v>
+      <c r="F15" s="2" t="n">
+        <v>640</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>11</v>
@@ -5258,8 +6294,8 @@
       <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="0" t="n">
-        <v>763.095890410959</v>
+      <c r="F16" s="2" t="n">
+        <v>758</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>11</v>
@@ -5289,8 +6325,8 @@
       <c r="E17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="0" t="n">
-        <v>842.493150684932</v>
+      <c r="F17" s="2" t="n">
+        <v>837</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>11</v>
@@ -5320,8 +6356,8 @@
       <c r="E18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="0" t="n">
-        <v>214.96062992126</v>
+      <c r="F18" s="2" t="n">
+        <v>213</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>11</v>
@@ -5351,8 +6387,8 @@
       <c r="E19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="0" t="n">
-        <v>236.220472440945</v>
+      <c r="F19" s="2" t="n">
+        <v>235</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>11</v>
@@ -5382,8 +6418,8 @@
       <c r="E20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="0" t="n">
-        <v>300</v>
+      <c r="F20" s="2" t="n">
+        <v>298</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>11</v>
@@ -5413,8 +6449,8 @@
       <c r="E21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="0" t="n">
-        <v>321.259842519685</v>
+      <c r="F21" s="2" t="n">
+        <v>319</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>11</v>
@@ -5444,8 +6480,8 @@
       <c r="E22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="0" t="n">
-        <v>344.881889763779</v>
+      <c r="F22" s="2" t="n">
+        <v>342</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>11</v>
@@ -5475,8 +6511,8 @@
       <c r="E23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="0" t="n">
-        <v>408.661417322835</v>
+      <c r="F23" s="2" t="n">
+        <v>406</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>11</v>
@@ -5506,8 +6542,8 @@
       <c r="E24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="0" t="n">
-        <v>156</v>
+      <c r="F24" s="2" t="n">
+        <v>155</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>11</v>
@@ -5537,8 +6573,8 @@
       <c r="E25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="0" t="n">
-        <v>171.428571428571</v>
+      <c r="F25" s="2" t="n">
+        <v>170</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>11</v>
@@ -5568,8 +6604,8 @@
       <c r="E26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="0" t="n">
-        <v>217.714285714286</v>
+      <c r="F26" s="2" t="n">
+        <v>216</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>11</v>
@@ -5599,8 +6635,8 @@
       <c r="E27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="0" t="n">
-        <v>233.142857142857</v>
+      <c r="F27" s="2" t="n">
+        <v>231</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>11</v>
@@ -5630,8 +6666,8 @@
       <c r="E28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="0" t="n">
-        <v>250.285714285714</v>
+      <c r="F28" s="2" t="n">
+        <v>248</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>11</v>
@@ -5661,8 +6697,8 @@
       <c r="E29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="0" t="n">
-        <v>156</v>
+      <c r="F29" s="2" t="n">
+        <v>155</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>11</v>
@@ -5692,8 +6728,8 @@
       <c r="E30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="0" t="n">
-        <v>171.428571428571</v>
+      <c r="F30" s="2" t="n">
+        <v>170</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>11</v>
@@ -5723,8 +6759,8 @@
       <c r="E31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="0" t="n">
-        <v>217.714285714286</v>
+      <c r="F31" s="2" t="n">
+        <v>216</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>11</v>
@@ -5738,7 +6774,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F31"/>
+  <autoFilter ref="A1:F28"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5755,21 +6791,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="78.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="75.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="79.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5788,28 +6824,37 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>130</v>
+      </c>
       <c r="H1" s="0" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>7</v>
+        <v>140</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>141</v>
+      <c r="A2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="D2" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5818,29 +6863,38 @@
       <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <v>3824</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>140</v>
+      <c r="A3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5849,29 +6903,38 @@
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>3673.05263157895</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>140</v>
+      <c r="A4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5880,29 +6943,38 @@
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>5031.57894736842</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>140</v>
+      <c r="A5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5911,29 +6983,38 @@
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>5434.1052631579</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>140</v>
+      <c r="A6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D6" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5942,29 +7023,38 @@
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>5736</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>140</v>
+      <c r="A7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D7" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -5973,29 +7063,38 @@
       <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <v>6390.1052631579</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>140</v>
+      <c r="A8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D8" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6004,29 +7103,38 @@
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <v>6490.73684210526</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>140</v>
+      <c r="A9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D9" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6035,29 +7143,38 @@
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <v>6692</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>141</v>
+      <c r="A10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6066,29 +7183,38 @@
       <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="1" t="n">
-        <v>3544.55555555556</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>140</v>
+      <c r="A11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6097,29 +7223,38 @@
       <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <v>3404.63888888889</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>140</v>
+      <c r="A12" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6128,29 +7263,38 @@
       <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="0" t="n">
-        <v>4663.88888888889</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>140</v>
+      <c r="A13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6159,29 +7303,38 @@
       <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <v>5037</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I13" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>140</v>
+      <c r="A14" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6190,29 +7343,38 @@
       <c r="E14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <v>5316.83333333333</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I14" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H14" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>140</v>
+      <c r="A15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D15" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6221,29 +7383,38 @@
       <c r="E15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="0" t="n">
-        <v>5923.13888888889</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I15" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>140</v>
+      <c r="A16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6252,29 +7423,38 @@
       <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="0" t="n">
-        <v>6016.41666666667</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I16" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>140</v>
+      <c r="A17" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6283,29 +7463,38 @@
       <c r="E17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="0" t="n">
-        <v>6202.97222222222</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I17" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>141</v>
+      <c r="A18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="D18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6314,29 +7503,38 @@
       <c r="E18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="1" t="n">
-        <v>2520.92</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I18" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H18" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>140</v>
+      <c r="A19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6345,29 +7543,38 @@
       <c r="E19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="0" t="n">
-        <v>2421.41</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I19" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>140</v>
+      <c r="A20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D20" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6376,29 +7583,38 @@
       <c r="E20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="0" t="n">
-        <v>3317</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I20" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>140</v>
+      <c r="A21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D21" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6407,29 +7623,38 @@
       <c r="E21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="0" t="n">
-        <v>3582.36</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I21" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H21" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>140</v>
+      <c r="A22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D22" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6438,29 +7663,38 @@
       <c r="E22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="0" t="n">
-        <v>3781.38</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I22" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>140</v>
+      <c r="A23" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D23" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6469,29 +7703,38 @@
       <c r="E23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="0" t="n">
-        <v>4212.59</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I23" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>141</v>
+      <c r="A24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6500,29 +7743,38 @@
       <c r="E24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="1" t="n">
-        <v>2304</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I24" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H24" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>140</v>
+      <c r="A25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6531,29 +7783,38 @@
       <c r="E25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="0" t="n">
-        <v>2213.05263157895</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I25" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H25" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>140</v>
+      <c r="A26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6562,29 +7823,38 @@
       <c r="E26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="0" t="n">
-        <v>3031.57894736842</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I26" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H26" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>140</v>
+      <c r="A27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6593,29 +7863,38 @@
       <c r="E27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="0" t="n">
-        <v>3274.10526315789</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I27" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H27" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>141</v>
+      <c r="A28" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>146</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6624,29 +7903,38 @@
       <c r="E28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="1" t="n">
-        <v>1939</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I28" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H28" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>140</v>
+      <c r="A29" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6655,29 +7943,38 @@
       <c r="E29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="0" t="n">
-        <v>1862.46052631579</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I29" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>140</v>
+      <c r="A30" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>145</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6686,22 +7983,31 @@
       <c r="E30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="0" t="n">
-        <v>2551.31578947368</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="I30" s="4" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="H30" s="4" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F30"/>
+  <autoFilter ref="A1:E30"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6718,13 +8024,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="47.56"/>
@@ -6771,10 +8077,11 @@
       <c r="C2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F2" s="1"/>
@@ -6794,10 +8101,10 @@
         <v>136</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D3" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6806,8 +8113,8 @@
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>165.426751592357</v>
+      <c r="F3" s="2" t="n">
+        <v>164</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
@@ -6825,10 +8132,10 @@
         <v>136</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="D4" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6837,8 +8144,8 @@
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>246.216560509554</v>
+      <c r="F4" s="2" t="n">
+        <v>245</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
@@ -6856,10 +8163,10 @@
         <v>136</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D5" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -6868,8 +8175,8 @@
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>330.853503184713</v>
+      <c r="F5" s="2" t="n">
+        <v>329</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
@@ -6887,7 +8194,7 @@
         <v>136</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>138</v>
@@ -6899,8 +8206,8 @@
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>384.713375796178</v>
+      <c r="F6" s="2" t="n">
+        <v>382</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>11</v>
@@ -6918,7 +8225,7 @@
         <v>136</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>103</v>
@@ -6930,8 +8237,8 @@
       <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <v>496.28025477707</v>
+      <c r="F7" s="2" t="n">
+        <v>493</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>11</v>
@@ -6949,7 +8256,7 @@
         <v>136</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>104</v>
@@ -6961,8 +8268,8 @@
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <v>550.140127388535</v>
+      <c r="F8" s="2" t="n">
+        <v>546</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>11</v>
@@ -6980,7 +8287,7 @@
         <v>136</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>105</v>
@@ -6992,8 +8299,8 @@
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="0" t="n">
-        <v>604</v>
+      <c r="F9" s="2" t="n">
+        <v>600</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>11</v>
@@ -7011,10 +8318,10 @@
         <v>136</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D10" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7023,8 +8330,8 @@
       <c r="E10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="0" t="n">
-        <v>138.020979020979</v>
+      <c r="F10" s="2" t="n">
+        <v>137</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>11</v>
@@ -7042,10 +8349,10 @@
         <v>136</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7054,8 +8361,8 @@
       <c r="E11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="0" t="n">
-        <v>205.426573426573</v>
+      <c r="F11" s="2" t="n">
+        <v>204</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
@@ -7073,10 +8380,10 @@
         <v>136</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D12" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7085,8 +8392,8 @@
       <c r="E12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="0" t="n">
-        <v>276.041958041958</v>
+      <c r="F12" s="2" t="n">
+        <v>274</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>11</v>
@@ -7104,7 +8411,7 @@
         <v>136</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>138</v>
@@ -7116,8 +8423,8 @@
       <c r="E13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="0" t="n">
-        <v>320.979020979021</v>
+      <c r="F13" s="2" t="n">
+        <v>318</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>11</v>
@@ -7135,7 +8442,7 @@
         <v>136</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>103</v>
@@ -7147,8 +8454,8 @@
       <c r="E14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <v>414.062937062937</v>
+      <c r="F14" s="2" t="n">
+        <v>411</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>11</v>
@@ -7166,7 +8473,7 @@
         <v>136</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>104</v>
@@ -7178,8 +8485,8 @@
       <c r="E15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="0" t="n">
-        <v>459</v>
+      <c r="F15" s="2" t="n">
+        <v>455</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>11</v>
@@ -7197,7 +8504,7 @@
         <v>136</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>105</v>
@@ -7209,8 +8516,8 @@
       <c r="E16" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="0" t="n">
-        <v>503.937062937063</v>
+      <c r="F16" s="2" t="n">
+        <v>500</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>11</v>
@@ -7228,10 +8535,10 @@
         <v>136</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7240,8 +8547,8 @@
       <c r="E17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="0" t="n">
-        <v>74.39</v>
+      <c r="F17" s="2" t="n">
+        <v>74</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>11</v>
@@ -7259,10 +8566,10 @@
         <v>136</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="D18" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7271,8 +8578,8 @@
       <c r="E18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="0" t="n">
-        <v>110.72</v>
+      <c r="F18" s="2" t="n">
+        <v>110</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>11</v>
@@ -7290,10 +8597,10 @@
         <v>136</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7302,8 +8609,8 @@
       <c r="E19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="0" t="n">
-        <v>148.78</v>
+      <c r="F19" s="2" t="n">
+        <v>148</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>11</v>
@@ -7321,7 +8628,7 @@
         <v>136</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>138</v>
@@ -7333,8 +8640,8 @@
       <c r="E20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="0" t="n">
-        <v>173</v>
+      <c r="F20" s="2" t="n">
+        <v>172</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>11</v>
@@ -7352,7 +8659,7 @@
         <v>136</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>103</v>
@@ -7364,8 +8671,8 @@
       <c r="E21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="0" t="n">
-        <v>223.17</v>
+      <c r="F21" s="2" t="n">
+        <v>221</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>11</v>
@@ -7383,7 +8690,7 @@
         <v>136</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>104</v>
@@ -7395,8 +8702,8 @@
       <c r="E22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="0" t="n">
-        <v>247.39</v>
+      <c r="F22" s="2" t="n">
+        <v>245</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>11</v>
@@ -7414,7 +8721,7 @@
         <v>136</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>105</v>
@@ -7426,8 +8733,8 @@
       <c r="E23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="0" t="n">
-        <v>271.61</v>
+      <c r="F23" s="2" t="n">
+        <v>269</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>11</v>
@@ -7445,10 +8752,10 @@
         <v>136</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7457,7 +8764,7 @@
       <c r="E24" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="2" t="n">
         <v>40</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -7476,10 +8783,10 @@
         <v>136</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7488,8 +8795,8 @@
       <c r="E25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="0" t="n">
-        <v>59.5348837209302</v>
+      <c r="F25" s="2" t="n">
+        <v>59</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>11</v>
@@ -7507,10 +8814,10 @@
         <v>136</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7519,8 +8826,8 @@
       <c r="E26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="0" t="n">
-        <v>80</v>
+      <c r="F26" s="2" t="n">
+        <v>79</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>11</v>
@@ -7538,7 +8845,7 @@
         <v>136</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>138</v>
@@ -7550,8 +8857,8 @@
       <c r="E27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="0" t="n">
-        <v>93.0232558139535</v>
+      <c r="F27" s="2" t="n">
+        <v>92</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>11</v>
@@ -7569,7 +8876,7 @@
         <v>136</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>103</v>
@@ -7581,8 +8888,8 @@
       <c r="E28" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="0" t="n">
-        <v>120</v>
+      <c r="F28" s="2" t="n">
+        <v>119</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>11</v>
@@ -7600,10 +8907,10 @@
         <v>136</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7612,7 +8919,7 @@
       <c r="E29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29" s="2" t="n">
         <v>40</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -7631,10 +8938,10 @@
         <v>136</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7643,8 +8950,8 @@
       <c r="E30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="0" t="n">
-        <v>59.5348837209302</v>
+      <c r="F30" s="2" t="n">
+        <v>59</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>11</v>
@@ -7662,10 +8969,10 @@
         <v>136</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="D31" s="4" t="n">
         <f aca="false">TRUE()</f>
@@ -7674,8 +8981,8 @@
       <c r="E31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F31" s="0" t="n">
-        <v>80</v>
+      <c r="F31" s="2" t="n">
+        <v>79</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>11</v>
@@ -7693,7 +9000,7 @@
         <v>136</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>138</v>
@@ -7705,8 +9012,8 @@
       <c r="E32" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F32" s="0" t="n">
-        <v>93.0232558139535</v>
+      <c r="F32" s="2" t="n">
+        <v>92</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>11</v>
@@ -7719,8 +9026,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F39" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F32"/>
+  <autoFilter ref="A1:F30"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -7730,4 +9058,218 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="78.82"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>